--- a/Hardware/Pure Keys aec-pcb3-BOM.xlsx
+++ b/Hardware/Pure Keys aec-pcb3-BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andycobley/Documents/Arduino/SiliconMind/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61FAE554-13FF-8A4A-BD9E-45AEA75323F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D106FB9-022B-B240-A8A2-25208201E59C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{3C444710-08AA-F94A-AB9A-87B5A991FBEC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Pure_Keys_aec_pcb3_BOM" localSheetId="0">Sheet1!$A$1:$P$73</definedName>
+    <definedName name="Pure_Keys_aec_pcb3_BOM" localSheetId="0">Sheet1!$A$1:$O$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="161">
   <si>
     <t>Part</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>PROD_ID</t>
-  </si>
-  <si>
-    <t>RC-PART</t>
   </si>
   <si>
     <t>RS-PART</t>
@@ -896,9 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06484421-AC08-4244-88D9-399DFC7373C1}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -913,13 +912,12 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -962,1277 +960,1274 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>74238</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
         <v>30</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
         <v>49</v>
       </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="s">
+      <c r="L23" t="s">
         <v>57</v>
       </c>
-      <c r="M23" t="s">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="D30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>81</v>
-      </c>
-      <c r="K32" t="s">
-        <v>82</v>
-      </c>
-      <c r="O32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="L33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
         <v>83</v>
       </c>
-      <c r="B33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
         <v>88</v>
       </c>
-      <c r="C35" t="s">
+      <c r="L35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
         <v>88</v>
       </c>
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="L36" t="s">
         <v>89</v>
       </c>
-      <c r="M35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>91</v>
       </c>
-      <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" t="s">
-        <v>89</v>
-      </c>
-      <c r="M36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>92</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>93</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>94</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>95</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>96</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="I37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>98</v>
       </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" t="s">
         <v>102</v>
       </c>
-      <c r="M38" t="s">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>105</v>
       </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="L46" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="L47" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
+        <v>101</v>
+      </c>
+      <c r="L48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="B41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
+      <c r="L60" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" t="s">
+        <v>101</v>
+      </c>
+      <c r="L61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D62" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" t="s">
+        <v>101</v>
+      </c>
+      <c r="L62" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+      <c r="L63" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" t="s">
+        <v>101</v>
+      </c>
+      <c r="L64" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" t="s">
-        <v>102</v>
-      </c>
-      <c r="M46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" t="s">
-        <v>102</v>
-      </c>
-      <c r="M47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" t="s">
-        <v>102</v>
-      </c>
-      <c r="M48" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" t="s">
-        <v>102</v>
-      </c>
-      <c r="M49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>105</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" t="s">
-        <v>101</v>
-      </c>
-      <c r="E53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" t="s">
-        <v>100</v>
-      </c>
-      <c r="D54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" t="s">
-        <v>101</v>
-      </c>
-      <c r="E58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" t="s">
-        <v>102</v>
-      </c>
-      <c r="M60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" t="s">
-        <v>102</v>
-      </c>
-      <c r="M61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" t="s">
-        <v>102</v>
-      </c>
-      <c r="M62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" t="s">
-        <v>102</v>
-      </c>
-      <c r="M63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>134</v>
       </c>
-      <c r="B64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" t="s">
-        <v>102</v>
-      </c>
-      <c r="M64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>135</v>
       </c>
-      <c r="B65" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>136</v>
       </c>
-      <c r="B66" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67" t="s">
         <v>137</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>139</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>140</v>
       </c>
-      <c r="E67" t="s">
-        <v>141</v>
-      </c>
       <c r="G67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H67">
         <v>1755108</v>
       </c>
       <c r="I67" t="s">
+        <v>141</v>
+      </c>
+      <c r="J67" t="s">
         <v>142</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>143</v>
       </c>
       <c r="M67" t="s">
         <v>144</v>
       </c>
-      <c r="N67" t="s">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>146</v>
       </c>
-      <c r="B68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>147</v>
       </c>
-      <c r="B69" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>148</v>
       </c>
-      <c r="B70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" t="s">
-        <v>53</v>
-      </c>
-      <c r="D70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>149</v>
       </c>
-      <c r="B71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>150</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>151</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>152</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>153</v>
       </c>
-      <c r="E72" t="s">
+      <c r="L72" t="s">
         <v>154</v>
       </c>
-      <c r="M72" t="s">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>156</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" t="s">
         <v>157</v>
       </c>
-      <c r="C73" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>158</v>
       </c>
-      <c r="E73" t="s">
+      <c r="K73" t="s">
         <v>159</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>160</v>
       </c>
-      <c r="M73" t="s">
-        <v>161</v>
-      </c>
-      <c r="O73" t="s">
-        <v>157</v>
+      <c r="N73" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
